--- a/biology/Médecine/Elizabeth_Zetzel/Elizabeth_Zetzel.xlsx
+++ b/biology/Médecine/Elizabeth_Zetzel/Elizabeth_Zetzel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elizabeth Zetzel Rosenberg, née le 17 mars 1907 à New York et morte le 22 novembre 1970 à Scarsdale, est une psychiatre et psychanalyste américain.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elizabeth Rosenberg naît à New York en 1907[1]. Elle est la fille du juriste James N. Rosenberg (en)[2]. Elle obtient son diplôme d'économie en 1928 à Smith College[1], puis est étudiante à la London School of Economics. Elle fait ses études de médecine au Royal Free Hospital de l'université de Londres et se spécialise en psychiatrie au Maudsley Hospital (en) en 1939[1]. Elle se forme à la psychanalyse à la Société britannique de psychanalyse où elle est analysée par Ernest Jones dans les années 1930[2]. Juste avant la guerre, elle travaille au Mill Hill Emergency Hospital, puis de 1943 à 1946, elle travaille comme psychiatre dans l'armée britannique, avec le rang de major[1]. Elle reprend ses activités au Maudsley Hospital de 1946 à 1949, puis retourne aux États-Unis en 1949[2].
-Elle donne des cours à la faculté de médecine de l'université Harvard et devient secrétaire, puis vice-présidente de l'International Psychiatric Association[1]. Elle se marie en 1944 avec Eric Guttmann, le couple a un fils. Après la mort de son mari, elle se remarie en 1949 avec Louis Zetzel, gastro-entérologue et professeur à Harvard. Elle meurt le 22 novembre 1970[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elizabeth Rosenberg naît à New York en 1907. Elle est la fille du juriste James N. Rosenberg (en). Elle obtient son diplôme d'économie en 1928 à Smith College, puis est étudiante à la London School of Economics. Elle fait ses études de médecine au Royal Free Hospital de l'université de Londres et se spécialise en psychiatrie au Maudsley Hospital (en) en 1939. Elle se forme à la psychanalyse à la Société britannique de psychanalyse où elle est analysée par Ernest Jones dans les années 1930. Juste avant la guerre, elle travaille au Mill Hill Emergency Hospital, puis de 1943 à 1946, elle travaille comme psychiatre dans l'armée britannique, avec le rang de major. Elle reprend ses activités au Maudsley Hospital de 1946 à 1949, puis retourne aux États-Unis en 1949.
+Elle donne des cours à la faculté de médecine de l'université Harvard et devient secrétaire, puis vice-présidente de l'International Psychiatric Association. Elle se marie en 1944 avec Eric Guttmann, le couple a un fils. Après la mort de son mari, elle se remarie en 1949 avec Louis Zetzel, gastro-entérologue et professeur à Harvard. Elle meurt le 22 novembre 1970.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Activités liées à la psychanalyse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durant son séjour à Londres, elle est témoin du développement des théories de Mélanie Klein et ses élèves, aux controverses entre kleiniens et freudiens. Elle a été marquée par l'influence de Melanie Klein mais encore plus par celle de Donald Winnicott[3], qu'elle a côtoyé, pour sa prise en considération de la mère comme objet réel et pas simplement objet fantasmé. 
-Cette prise de position ne l'a pas empêchée de contribuer à faire connaître l'œuvre kleinienne à son retour aux États-Unis en 1949[2]. Elle devient membre de la Boston Psychoanalytic Society (en)[2]. Elle écrit notamment sur l'hystérie, sur le transfert et a proposé le terme d'alliance thérapeutique comme un des aspects du transfert[4]. 
-Fidèle à ses premiers pôles d'intérêts, elle s'est encore particulièrement intéressée au développement précoce de la vie psychique du nourrisson avec des psychanalystes comme Edith Jacobson, René Spitz, Phyllis Greenacre ou Ernst Kris[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant son séjour à Londres, elle est témoin du développement des théories de Mélanie Klein et ses élèves, aux controverses entre kleiniens et freudiens. Elle a été marquée par l'influence de Melanie Klein mais encore plus par celle de Donald Winnicott, qu'elle a côtoyé, pour sa prise en considération de la mère comme objet réel et pas simplement objet fantasmé. 
+Cette prise de position ne l'a pas empêchée de contribuer à faire connaître l'œuvre kleinienne à son retour aux États-Unis en 1949. Elle devient membre de la Boston Psychoanalytic Society (en). Elle écrit notamment sur l'hystérie, sur le transfert et a proposé le terme d'alliance thérapeutique comme un des aspects du transfert. 
+Fidèle à ses premiers pôles d'intérêts, elle s'est encore particulièrement intéressée au développement précoce de la vie psychique du nourrisson avec des psychanalystes comme Edith Jacobson, René Spitz, Phyllis Greenacre ou Ernst Kris.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>The depressive position. In P. Greenacre (Hg.): Affective Disorders. New York 1953, 84-116
 The concept of anxiety in relation to the development of psychoanalysis. JAPA 3, 1955, 369-388
